--- a/ramp/input_files/Room inputfiles/Large Corridor with Stairs/Large Corridor with Stairs.xlsx
+++ b/ramp/input_files/Room inputfiles/Large Corridor with Stairs/Large Corridor with Stairs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Thesis\My RAMP model\ramp\input_files\Room inputfiles\Large Corridor with Stairs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Thesis\My RAMP model\Master's Thesis\ramp\input_files\Room inputfiles\Large Corridor with Stairs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A2D4EF-68D8-40F0-B91B-74965A0D3AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A495A6-5C77-4FAE-A308-8A4F16372A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WS_Break" sheetId="1" r:id="rId1"/>
@@ -406,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -469,7 +469,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2">
         <v>36</v>
@@ -886,7 +886,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2">
         <v>36</v>
@@ -1070,7 +1070,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2">
         <v>36</v>
@@ -1249,7 +1249,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2">
         <v>36</v>
@@ -1428,7 +1428,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2">
         <v>36</v>
@@ -1607,7 +1607,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2">
         <v>36</v>
@@ -1786,7 +1786,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2">
         <v>36</v>
@@ -1902,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE7E755-A0FE-48DF-94F5-D612D689B241}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1965,7 +1965,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2">
         <v>36</v>
